--- a/SGA/webadmin/docs/SGAUsers_Upload_Template.xlsx
+++ b/SGA/webadmin/docs/SGAUsers_Upload_Template.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4506"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
     <workbookView xWindow="360" yWindow="90" windowWidth="14355" windowHeight="4680"/>
@@ -10,15 +10,13 @@
     <sheet name="Users" sheetId="1" r:id="rId1"/>
     <sheet name="Your Organisation" sheetId="2" r:id="rId2"/>
     <sheet name="Your Job ROLE" sheetId="4" r:id="rId3"/>
-    <sheet name="Job level" sheetId="6" r:id="rId4"/>
-    <sheet name="Location" sheetId="7" r:id="rId5"/>
   </sheets>
-  <calcPr calcId="124519"/>
+  <calcPr calcId="125725"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="69" uniqueCount="67">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="37" uniqueCount="36">
   <si>
     <t xml:space="preserve">Email address </t>
   </si>
@@ -35,18 +33,6 @@
     <t>Your Job ROLE ID</t>
   </si>
   <si>
-    <t>Your Job level ID</t>
-  </si>
-  <si>
-    <t>Manager's First Name</t>
-  </si>
-  <si>
-    <t>Manager's Last Name</t>
-  </si>
-  <si>
-    <t>Manager's Email</t>
-  </si>
-  <si>
     <t>Job ROLE ID</t>
   </si>
   <si>
@@ -59,30 +45,6 @@
     <t>Contract Manager</t>
   </si>
   <si>
-    <t>Executive Level</t>
-  </si>
-  <si>
-    <t>Director</t>
-  </si>
-  <si>
-    <t>Senior advisor</t>
-  </si>
-  <si>
-    <t>Advisor</t>
-  </si>
-  <si>
-    <t>Officer</t>
-  </si>
-  <si>
-    <t>Graduate</t>
-  </si>
-  <si>
-    <t>Job level ID</t>
-  </si>
-  <si>
-    <t>Job level Name</t>
-  </si>
-  <si>
     <t>Your Organisation</t>
   </si>
   <si>
@@ -162,70 +124,13 @@
   </si>
   <si>
     <t>Procurement Director</t>
-  </si>
-  <si>
-    <t>Operational Leader</t>
-  </si>
-  <si>
-    <t>Phone</t>
-  </si>
-  <si>
-    <t>Division</t>
-  </si>
-  <si>
-    <t>Location ID</t>
-  </si>
-  <si>
-    <t>Location Name</t>
-  </si>
-  <si>
-    <t>Brisbane</t>
-  </si>
-  <si>
-    <t>South West</t>
-  </si>
-  <si>
-    <t>Sunshine Coast</t>
-  </si>
-  <si>
-    <t>Gold Coast</t>
-  </si>
-  <si>
-    <t>Fitzroy</t>
-  </si>
-  <si>
-    <t>Mackay</t>
-  </si>
-  <si>
-    <t>Northern</t>
-  </si>
-  <si>
-    <t>North West</t>
-  </si>
-  <si>
-    <t>Wide Bay-Burnett</t>
-  </si>
-  <si>
-    <t>Far North Queensland</t>
-  </si>
-  <si>
-    <t>Darling Downs</t>
-  </si>
-  <si>
-    <t>Far North</t>
-  </si>
-  <si>
-    <t>South West Queensland</t>
-  </si>
-  <si>
-    <t>Northern Queensland</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="22">
+  <fonts count="23">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -391,6 +296,13 @@
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
+      <name val="Calibri"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="34">
@@ -722,7 +634,7 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="42">
+  <cellStyleXfs count="43">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
@@ -765,8 +677,12 @@
     <xf numFmtId="0" fontId="1" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="17" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="top"/>
+      <protection locked="0"/>
+    </xf>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="20" fillId="33" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" indent="1"/>
@@ -786,8 +702,11 @@
     <xf numFmtId="0" fontId="21" fillId="33" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
     </xf>
+    <xf numFmtId="0" fontId="22" fillId="33" borderId="11" xfId="42" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="42">
+  <cellStyles count="43">
     <cellStyle name="20% - Accent1" xfId="19" builtinId="30" customBuiltin="1"/>
     <cellStyle name="20% - Accent2" xfId="23" builtinId="34" customBuiltin="1"/>
     <cellStyle name="20% - Accent3" xfId="27" builtinId="38" customBuiltin="1"/>
@@ -821,6 +740,7 @@
     <cellStyle name="Heading 2" xfId="3" builtinId="17" customBuiltin="1"/>
     <cellStyle name="Heading 3" xfId="4" builtinId="18" customBuiltin="1"/>
     <cellStyle name="Heading 4" xfId="5" builtinId="19" customBuiltin="1"/>
+    <cellStyle name="Hyperlink" xfId="42" builtinId="8"/>
     <cellStyle name="Input" xfId="9" builtinId="20" customBuiltin="1"/>
     <cellStyle name="Linked Cell" xfId="12" builtinId="24" customBuiltin="1"/>
     <cellStyle name="Neutral" xfId="8" builtinId="28" customBuiltin="1"/>
@@ -1121,10 +1041,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:L5"/>
+  <dimension ref="A1:E5"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E4" sqref="A2:E4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -1133,13 +1053,10 @@
     <col min="2" max="2" width="26.5703125" customWidth="1"/>
     <col min="3" max="3" width="17.7109375" customWidth="1"/>
     <col min="4" max="4" width="25.85546875" customWidth="1"/>
-    <col min="5" max="6" width="23" customWidth="1"/>
-    <col min="7" max="7" width="37.7109375" customWidth="1"/>
-    <col min="8" max="8" width="39.140625" customWidth="1"/>
-    <col min="9" max="12" width="30.7109375" customWidth="1"/>
+    <col min="5" max="5" width="23" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" ht="15.75" thickBot="1">
+    <row r="1" spans="1:5" ht="15.75" thickBot="1">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1150,88 +1067,39 @@
         <v>2</v>
       </c>
       <c r="D1" s="5" t="s">
-        <v>22</v>
+        <v>10</v>
       </c>
       <c r="E1" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="5" t="s">
-        <v>5</v>
-      </c>
-      <c r="G1" s="5" t="s">
-        <v>6</v>
-      </c>
-      <c r="H1" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="I1" s="5" t="s">
-        <v>8</v>
-      </c>
-      <c r="J1" s="5" t="s">
-        <v>49</v>
-      </c>
-      <c r="K1" s="5" t="s">
-        <v>50</v>
-      </c>
-      <c r="L1" s="5" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="2" spans="1:12">
-      <c r="A2" s="2"/>
+    </row>
+    <row r="2" spans="1:5">
+      <c r="A2" s="7"/>
       <c r="B2" s="2"/>
       <c r="C2" s="2"/>
       <c r="D2" s="2"/>
       <c r="E2" s="3"/>
-      <c r="F2" s="3"/>
-      <c r="G2" s="3"/>
-      <c r="H2" s="3"/>
-      <c r="I2" s="3"/>
-      <c r="J2" s="3"/>
-      <c r="K2" s="3"/>
-      <c r="L2" s="3"/>
-    </row>
-    <row r="3" spans="1:12">
-      <c r="A3" s="2"/>
+    </row>
+    <row r="3" spans="1:5">
+      <c r="A3" s="7"/>
       <c r="B3" s="2"/>
       <c r="C3" s="2"/>
       <c r="D3" s="2"/>
       <c r="E3" s="3"/>
-      <c r="F3" s="3"/>
-      <c r="G3" s="3"/>
-      <c r="H3" s="3"/>
-      <c r="I3" s="3"/>
-      <c r="J3" s="3"/>
-      <c r="K3" s="3"/>
-      <c r="L3" s="3"/>
-    </row>
-    <row r="4" spans="1:12">
-      <c r="A4" s="2"/>
-      <c r="B4" s="2"/>
-      <c r="C4" s="2"/>
+    </row>
+    <row r="4" spans="1:5">
+      <c r="A4" s="7"/>
+      <c r="B4" s="3"/>
+      <c r="C4" s="3"/>
       <c r="D4" s="2"/>
       <c r="E4" s="3"/>
-      <c r="F4" s="3"/>
-      <c r="G4" s="3"/>
-      <c r="H4" s="3"/>
-      <c r="I4" s="3"/>
-      <c r="J4" s="3"/>
-      <c r="K4" s="3"/>
-      <c r="L4" s="3"/>
-    </row>
-    <row r="5" spans="1:12">
+    </row>
+    <row r="5" spans="1:5">
       <c r="A5" s="2"/>
       <c r="B5" s="2"/>
       <c r="C5" s="2"/>
       <c r="D5" s="2"/>
       <c r="E5" s="3"/>
-      <c r="F5" s="3"/>
-      <c r="G5" s="3"/>
-      <c r="H5" s="3"/>
-      <c r="I5" s="3"/>
-      <c r="J5" s="3"/>
-      <c r="K5" s="3"/>
-      <c r="L5" s="3"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1243,7 +1111,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:B27"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B25" sqref="B25"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
@@ -1253,10 +1123,10 @@
   <sheetData>
     <row r="1" spans="1:2" ht="15.75" thickBot="1">
       <c r="A1" s="5" t="s">
-        <v>22</v>
+        <v>10</v>
       </c>
       <c r="B1" s="5" t="s">
-        <v>21</v>
+        <v>9</v>
       </c>
     </row>
     <row r="2" spans="1:2">
@@ -1264,7 +1134,7 @@
         <v>1</v>
       </c>
       <c r="B2" s="4" t="s">
-        <v>23</v>
+        <v>11</v>
       </c>
     </row>
     <row r="3" spans="1:2">
@@ -1272,7 +1142,7 @@
         <v>2</v>
       </c>
       <c r="B3" s="6" t="s">
-        <v>24</v>
+        <v>12</v>
       </c>
     </row>
     <row r="4" spans="1:2">
@@ -1280,7 +1150,7 @@
         <v>3</v>
       </c>
       <c r="B4" s="6" t="s">
-        <v>25</v>
+        <v>13</v>
       </c>
     </row>
     <row r="5" spans="1:2">
@@ -1288,7 +1158,7 @@
         <v>4</v>
       </c>
       <c r="B5" s="6" t="s">
-        <v>26</v>
+        <v>14</v>
       </c>
     </row>
     <row r="6" spans="1:2">
@@ -1296,7 +1166,7 @@
         <v>5</v>
       </c>
       <c r="B6" s="6" t="s">
-        <v>27</v>
+        <v>15</v>
       </c>
     </row>
     <row r="7" spans="1:2">
@@ -1304,7 +1174,7 @@
         <v>6</v>
       </c>
       <c r="B7" s="6" t="s">
-        <v>28</v>
+        <v>16</v>
       </c>
     </row>
     <row r="8" spans="1:2">
@@ -1312,7 +1182,7 @@
         <v>7</v>
       </c>
       <c r="B8" s="6" t="s">
-        <v>29</v>
+        <v>17</v>
       </c>
     </row>
     <row r="9" spans="1:2">
@@ -1320,7 +1190,7 @@
         <v>8</v>
       </c>
       <c r="B9" s="6" t="s">
-        <v>30</v>
+        <v>18</v>
       </c>
     </row>
     <row r="10" spans="1:2">
@@ -1328,7 +1198,7 @@
         <v>9</v>
       </c>
       <c r="B10" s="6" t="s">
-        <v>31</v>
+        <v>19</v>
       </c>
     </row>
     <row r="11" spans="1:2">
@@ -1336,7 +1206,7 @@
         <v>10</v>
       </c>
       <c r="B11" s="6" t="s">
-        <v>32</v>
+        <v>20</v>
       </c>
     </row>
     <row r="12" spans="1:2">
@@ -1344,7 +1214,7 @@
         <v>11</v>
       </c>
       <c r="B12" s="6" t="s">
-        <v>33</v>
+        <v>21</v>
       </c>
     </row>
     <row r="13" spans="1:2">
@@ -1352,7 +1222,7 @@
         <v>12</v>
       </c>
       <c r="B13" s="6" t="s">
-        <v>34</v>
+        <v>22</v>
       </c>
     </row>
     <row r="14" spans="1:2">
@@ -1360,7 +1230,7 @@
         <v>13</v>
       </c>
       <c r="B14" s="6" t="s">
-        <v>35</v>
+        <v>23</v>
       </c>
     </row>
     <row r="15" spans="1:2">
@@ -1368,7 +1238,7 @@
         <v>14</v>
       </c>
       <c r="B15" s="6" t="s">
-        <v>36</v>
+        <v>24</v>
       </c>
     </row>
     <row r="16" spans="1:2">
@@ -1376,7 +1246,7 @@
         <v>15</v>
       </c>
       <c r="B16" s="6" t="s">
-        <v>37</v>
+        <v>25</v>
       </c>
     </row>
     <row r="17" spans="1:2">
@@ -1384,7 +1254,7 @@
         <v>16</v>
       </c>
       <c r="B17" s="6" t="s">
-        <v>38</v>
+        <v>26</v>
       </c>
     </row>
     <row r="18" spans="1:2">
@@ -1392,7 +1262,7 @@
         <v>17</v>
       </c>
       <c r="B18" s="6" t="s">
-        <v>39</v>
+        <v>27</v>
       </c>
     </row>
     <row r="19" spans="1:2">
@@ -1400,7 +1270,7 @@
         <v>18</v>
       </c>
       <c r="B19" s="6" t="s">
-        <v>40</v>
+        <v>28</v>
       </c>
     </row>
     <row r="20" spans="1:2">
@@ -1408,7 +1278,7 @@
         <v>19</v>
       </c>
       <c r="B20" s="6" t="s">
-        <v>41</v>
+        <v>29</v>
       </c>
     </row>
     <row r="21" spans="1:2">
@@ -1416,7 +1286,7 @@
         <v>20</v>
       </c>
       <c r="B21" s="6" t="s">
-        <v>42</v>
+        <v>30</v>
       </c>
     </row>
     <row r="22" spans="1:2">
@@ -1453,7 +1323,7 @@
   <dimension ref="A1:B9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B9" sqref="B9"/>
+      <selection activeCell="B21" sqref="B21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -1464,10 +1334,10 @@
   <sheetData>
     <row r="1" spans="1:2" ht="15.75" thickBot="1">
       <c r="A1" s="5" t="s">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="B1" s="5" t="s">
-        <v>10</v>
+        <v>6</v>
       </c>
     </row>
     <row r="2" spans="1:2">
@@ -1475,7 +1345,7 @@
         <v>1</v>
       </c>
       <c r="B2" s="4" t="s">
-        <v>43</v>
+        <v>31</v>
       </c>
     </row>
     <row r="3" spans="1:2" ht="18" customHeight="1">
@@ -1483,7 +1353,7 @@
         <v>2</v>
       </c>
       <c r="B3" s="6" t="s">
-        <v>11</v>
+        <v>7</v>
       </c>
     </row>
     <row r="4" spans="1:2" ht="18" customHeight="1">
@@ -1491,7 +1361,7 @@
         <v>3</v>
       </c>
       <c r="B4" s="6" t="s">
-        <v>44</v>
+        <v>32</v>
       </c>
     </row>
     <row r="5" spans="1:2" ht="19.5" customHeight="1">
@@ -1499,7 +1369,7 @@
         <v>4</v>
       </c>
       <c r="B5" s="6" t="s">
-        <v>45</v>
+        <v>33</v>
       </c>
     </row>
     <row r="6" spans="1:2">
@@ -1507,7 +1377,7 @@
         <v>5</v>
       </c>
       <c r="B6" s="6" t="s">
-        <v>12</v>
+        <v>8</v>
       </c>
     </row>
     <row r="7" spans="1:2" ht="18" customHeight="1">
@@ -1515,7 +1385,7 @@
         <v>6</v>
       </c>
       <c r="B7" s="6" t="s">
-        <v>46</v>
+        <v>34</v>
       </c>
     </row>
     <row r="8" spans="1:2" ht="18" customHeight="1">
@@ -1531,229 +1401,7 @@
         <v>8</v>
       </c>
       <c r="B9" s="6" t="s">
-        <v>47</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B8"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection sqref="A1:B8"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
-  <cols>
-    <col min="1" max="1" width="16.140625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="19.42578125" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:2" ht="15.75" thickBot="1">
-      <c r="A1" s="5" t="s">
-        <v>19</v>
-      </c>
-      <c r="B1" s="5" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2">
-      <c r="A2" s="4">
-        <v>1</v>
-      </c>
-      <c r="B2" s="4" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2">
-      <c r="A3" s="6">
-        <v>2</v>
-      </c>
-      <c r="B3" s="6" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2">
-      <c r="A4" s="6">
-        <v>3</v>
-      </c>
-      <c r="B4" s="6" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2">
-      <c r="A5" s="6">
-        <v>4</v>
-      </c>
-      <c r="B5" s="6" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="6" spans="1:2">
-      <c r="A6" s="6">
-        <v>5</v>
-      </c>
-      <c r="B6" s="6" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="7" spans="1:2">
-      <c r="A7" s="6">
-        <v>6</v>
-      </c>
-      <c r="B7" s="6" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="8" spans="1:2">
-      <c r="A8" s="6">
-        <v>7</v>
-      </c>
-      <c r="B8" s="6" t="s">
-        <v>13</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B15"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D11" sqref="D11"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
-  <cols>
-    <col min="1" max="1" width="17.28515625" customWidth="1"/>
-    <col min="2" max="2" width="25.28515625" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:2" ht="15.75" thickBot="1">
-      <c r="A1" s="5" t="s">
-        <v>51</v>
-      </c>
-      <c r="B1" s="5" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2">
-      <c r="A2" s="4">
-        <v>1</v>
-      </c>
-      <c r="B2" s="4" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2">
-      <c r="A3" s="6">
-        <v>2</v>
-      </c>
-      <c r="B3" s="6" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2">
-      <c r="A4" s="6">
-        <v>3</v>
-      </c>
-      <c r="B4" s="6" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2">
-      <c r="A5" s="6">
-        <v>4</v>
-      </c>
-      <c r="B5" s="6" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="6" spans="1:2">
-      <c r="A6" s="6">
-        <v>5</v>
-      </c>
-      <c r="B6" s="6" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="7" spans="1:2">
-      <c r="A7" s="6">
-        <v>6</v>
-      </c>
-      <c r="B7" s="6" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="8" spans="1:2">
-      <c r="A8" s="6">
-        <v>7</v>
-      </c>
-      <c r="B8" s="6" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="9" spans="1:2">
-      <c r="A9" s="6">
-        <v>8</v>
-      </c>
-      <c r="B9" s="6" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="10" spans="1:2">
-      <c r="A10" s="6">
-        <v>9</v>
-      </c>
-      <c r="B10" s="6" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="11" spans="1:2">
-      <c r="A11" s="6">
-        <v>10</v>
-      </c>
-      <c r="B11" s="6" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="12" spans="1:2">
-      <c r="A12" s="6">
-        <v>11</v>
-      </c>
-      <c r="B12" s="6" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="13" spans="1:2">
-      <c r="A13" s="6">
-        <v>12</v>
-      </c>
-      <c r="B13" s="6" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="14" spans="1:2">
-      <c r="A14" s="6">
-        <v>13</v>
-      </c>
-      <c r="B14" s="6" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="15" spans="1:2">
-      <c r="A15" s="6">
-        <v>14</v>
-      </c>
-      <c r="B15" s="6" t="s">
-        <v>66</v>
+        <v>35</v>
       </c>
     </row>
   </sheetData>
